--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H2">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N2">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O2">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P2">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q2">
-        <v>14.84789234007852</v>
+        <v>24.72116854096866</v>
       </c>
       <c r="R2">
-        <v>14.84789234007852</v>
+        <v>222.4905168687179</v>
       </c>
       <c r="S2">
-        <v>0.037394169296657</v>
+        <v>0.03243472771399764</v>
       </c>
       <c r="T2">
-        <v>0.037394169296657</v>
+        <v>0.03243472771399764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H3">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N3">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O3">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P3">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q3">
-        <v>1.167406049121603</v>
+        <v>1.804485793025222</v>
       </c>
       <c r="R3">
-        <v>1.167406049121603</v>
+        <v>16.240372137227</v>
       </c>
       <c r="S3">
-        <v>0.00294009267032198</v>
+        <v>0.002367525841812689</v>
       </c>
       <c r="T3">
-        <v>0.00294009267032198</v>
+        <v>0.002367525841812689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H4">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N4">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O4">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P4">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q4">
-        <v>0.4207831069033261</v>
+        <v>0.7145255353327777</v>
       </c>
       <c r="R4">
-        <v>0.4207831069033261</v>
+        <v>6.430729817994999</v>
       </c>
       <c r="S4">
-        <v>0.001059735238936484</v>
+        <v>0.0009374735318360868</v>
       </c>
       <c r="T4">
-        <v>0.001059735238936484</v>
+        <v>0.0009374735318360868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H5">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N5">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O5">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P5">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q5">
-        <v>0.8127102743583906</v>
+        <v>1.297472239181222</v>
       </c>
       <c r="R5">
-        <v>0.8127102743583906</v>
+        <v>11.677250152631</v>
       </c>
       <c r="S5">
-        <v>0.002046797275493278</v>
+        <v>0.001702312684959544</v>
       </c>
       <c r="T5">
-        <v>0.002046797275493278</v>
+        <v>0.001702312684959543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H6">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J6">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N6">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O6">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P6">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q6">
-        <v>0.1530941511367553</v>
+        <v>0.2380257493988888</v>
       </c>
       <c r="R6">
-        <v>0.1530941511367553</v>
+        <v>2.14223174459</v>
       </c>
       <c r="S6">
-        <v>0.0003855650670690106</v>
+        <v>0.0003122951230189174</v>
       </c>
       <c r="T6">
-        <v>0.0003855650670690106</v>
+        <v>0.0003122951230189174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H7">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J7">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N7">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O7">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P7">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q7">
-        <v>7.133446988957118</v>
+        <v>18.530879067323</v>
       </c>
       <c r="R7">
-        <v>7.133446988957118</v>
+        <v>166.777911605907</v>
       </c>
       <c r="S7">
-        <v>0.01796546730432314</v>
+        <v>0.02431292905323516</v>
       </c>
       <c r="T7">
-        <v>0.01796546730432314</v>
+        <v>0.02431292905323516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H8">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N8">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O8">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P8">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q8">
-        <v>46.10604651983973</v>
+        <v>66.50370147043466</v>
       </c>
       <c r="R8">
-        <v>46.10604651983973</v>
+        <v>598.5333132339119</v>
       </c>
       <c r="S8">
-        <v>0.11611730942503</v>
+        <v>0.08725434825590218</v>
       </c>
       <c r="T8">
-        <v>0.11611730942503</v>
+        <v>0.08725434825590218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H9">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N9">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O9">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P9">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q9">
-        <v>3.625058451094501</v>
+        <v>4.854341099940889</v>
       </c>
       <c r="R9">
-        <v>3.625058451094501</v>
+        <v>43.689069899468</v>
       </c>
       <c r="S9">
-        <v>0.009129649267768611</v>
+        <v>0.006369004424144474</v>
       </c>
       <c r="T9">
-        <v>0.009129649267768611</v>
+        <v>0.006369004424144474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H10">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J10">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N10">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O10">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P10">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q10">
-        <v>1.306626223930773</v>
+        <v>1.922182311731111</v>
       </c>
       <c r="R10">
-        <v>1.306626223930773</v>
+        <v>17.29964080558</v>
       </c>
       <c r="S10">
-        <v>0.003290716359333504</v>
+        <v>0.002521946314727816</v>
       </c>
       <c r="T10">
-        <v>0.003290716359333504</v>
+        <v>0.002521946314727816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H11">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J11">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N11">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O11">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P11">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q11">
-        <v>2.52364826323367</v>
+        <v>3.490397564244889</v>
       </c>
       <c r="R11">
-        <v>2.52364826323367</v>
+        <v>31.413578078204</v>
       </c>
       <c r="S11">
-        <v>0.006355766073669904</v>
+        <v>0.004579479906957814</v>
       </c>
       <c r="T11">
-        <v>0.006355766073669904</v>
+        <v>0.004579479906957813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H12">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J12">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N12">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O12">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P12">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q12">
-        <v>0.4753917857535656</v>
+        <v>0.6403254503955556</v>
       </c>
       <c r="R12">
-        <v>0.4753917857535656</v>
+        <v>5.76292905356</v>
       </c>
       <c r="S12">
-        <v>0.001197266286119564</v>
+        <v>0.0008401213558131001</v>
       </c>
       <c r="T12">
-        <v>0.001197266286119564</v>
+        <v>0.0008401213558131001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H13">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J13">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N13">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O13">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P13">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q13">
-        <v>22.15095793979392</v>
+        <v>49.85088174273199</v>
       </c>
       <c r="R13">
-        <v>22.15095793979392</v>
+        <v>448.657935684588</v>
       </c>
       <c r="S13">
-        <v>0.0557868182440904</v>
+        <v>0.06540547518814226</v>
       </c>
       <c r="T13">
-        <v>0.0557868182440904</v>
+        <v>0.06540547518814226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H14">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J14">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.5827881596582</v>
+        <v>30.789758</v>
       </c>
       <c r="N14">
-        <v>28.5827881596582</v>
+        <v>92.36927399999999</v>
       </c>
       <c r="O14">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="P14">
-        <v>0.6051636794253803</v>
+        <v>0.5225738279799484</v>
       </c>
       <c r="Q14">
-        <v>179.3349973362689</v>
+        <v>307.0715421091232</v>
       </c>
       <c r="R14">
-        <v>179.3349973362689</v>
+        <v>2763.64387898211</v>
       </c>
       <c r="S14">
-        <v>0.4516522007036933</v>
+        <v>0.4028847520100486</v>
       </c>
       <c r="T14">
-        <v>0.4516522007036933</v>
+        <v>0.4028847520100486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H15">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J15">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.24730345789737</v>
+        <v>2.247453666666667</v>
       </c>
       <c r="N15">
-        <v>2.24730345789737</v>
+        <v>6.742361000000001</v>
       </c>
       <c r="O15">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="P15">
-        <v>0.04758060766395211</v>
+        <v>0.03814451759567488</v>
       </c>
       <c r="Q15">
-        <v>14.10009959086623</v>
+        <v>22.41424123054611</v>
       </c>
       <c r="R15">
-        <v>14.10009959086623</v>
+        <v>201.728171074915</v>
       </c>
       <c r="S15">
-        <v>0.03551086572586152</v>
+        <v>0.02940798732971772</v>
       </c>
       <c r="T15">
-        <v>0.03551086572586152</v>
+        <v>0.02940798732971772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H16">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J16">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.810024354319704</v>
+        <v>0.8899283333333333</v>
       </c>
       <c r="N16">
-        <v>0.810024354319704</v>
+        <v>2.669785</v>
       </c>
       <c r="O16">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="P16">
-        <v>0.01715008752631576</v>
+        <v>0.01510415430279821</v>
       </c>
       <c r="Q16">
-        <v>5.082279398804955</v>
+        <v>8.875408039363888</v>
       </c>
       <c r="R16">
-        <v>5.082279398804955</v>
+        <v>79.878672354275</v>
       </c>
       <c r="S16">
-        <v>0.01279963592804578</v>
+        <v>0.01164473445623431</v>
       </c>
       <c r="T16">
-        <v>0.01279963592804578</v>
+        <v>0.01164473445623431</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H17">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J17">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56449986806954</v>
+        <v>1.615977666666667</v>
       </c>
       <c r="N17">
-        <v>1.56449986806954</v>
+        <v>4.847932999999999</v>
       </c>
       <c r="O17">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860586</v>
       </c>
       <c r="P17">
-        <v>0.03312407772583116</v>
+        <v>0.02742690069860585</v>
       </c>
       <c r="Q17">
-        <v>9.816032575465835</v>
+        <v>16.11642267916611</v>
       </c>
       <c r="R17">
-        <v>9.816032575465835</v>
+        <v>145.047804112495</v>
       </c>
       <c r="S17">
-        <v>0.02472151437666798</v>
+        <v>0.0211451081066885</v>
       </c>
       <c r="T17">
-        <v>0.02472151437666798</v>
+        <v>0.0211451081066885</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H18">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J18">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.294712380060363</v>
+        <v>0.2964566666666666</v>
       </c>
       <c r="N18">
-        <v>0.294712380060363</v>
+        <v>0.88937</v>
       </c>
       <c r="O18">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="P18">
-        <v>0.006239742158578594</v>
+        <v>0.005031559362375489</v>
       </c>
       <c r="Q18">
-        <v>1.849093363385957</v>
+        <v>2.956613228394444</v>
       </c>
       <c r="R18">
-        <v>1.849093363385957</v>
+        <v>26.60951905555</v>
       </c>
       <c r="S18">
-        <v>0.00465691080539002</v>
+        <v>0.003879142883543471</v>
       </c>
       <c r="T18">
-        <v>0.00465691080539002</v>
+        <v>0.003879142883543471</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.27423036320098</v>
+        <v>9.973171666666666</v>
       </c>
       <c r="H19">
-        <v>6.27423036320098</v>
+        <v>29.919515</v>
       </c>
       <c r="I19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="J19">
-        <v>0.7463306474911872</v>
+        <v>0.7709623606054523</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.7321715071403</v>
+        <v>23.079867</v>
       </c>
       <c r="N19">
-        <v>13.7321715071403</v>
+        <v>69.23960099999999</v>
       </c>
       <c r="O19">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="P19">
-        <v>0.2907418054999422</v>
+        <v>0.3917190400605971</v>
       </c>
       <c r="Q19">
-        <v>86.15880742278303</v>
+        <v>230.1794756348349</v>
       </c>
       <c r="R19">
-        <v>86.15880742278303</v>
+        <v>2071.615280713514</v>
       </c>
       <c r="S19">
-        <v>0.2169895199515286</v>
+        <v>0.3020006358192197</v>
       </c>
       <c r="T19">
-        <v>0.2169895199515286</v>
+        <v>0.3020006358192197</v>
       </c>
     </row>
   </sheetData>
